--- a/1 month results.xlsx
+++ b/1 month results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\ACTIVE\30Yr Conforming Rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\30Yr Conforming Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB42646-364F-4608-BCC1-BE0CACE4A1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955D8BD-63EE-46AD-B461-5DECBD522EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>#</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Actual</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Residual</t>
   </si>
 </sst>
 </file>
@@ -404,22 +410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8400F-F70C-4809-B1E6-0681672A79E0}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +443,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,6 +467,13 @@
       </c>
       <c r="E2">
         <v>6.9652796432485298</v>
+      </c>
+      <c r="F2">
+        <v>6.7874299999999996</v>
+      </c>
+      <c r="H2">
+        <f>G2-F2</f>
+        <v>-6.7874299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/1 month results.xlsx
+++ b/1 month results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\30Yr Conforming Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7955D8BD-63EE-46AD-B461-5DECBD522EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0DF15-A86C-4688-8C40-F6D39998FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
   </bookViews>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8400F-F70C-4809-B1E6-0681672A79E0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,7 +426,7 @@
     <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -471,9 +471,46 @@
       <c r="F2">
         <v>6.7874299999999996</v>
       </c>
+      <c r="G2">
+        <v>7.08</v>
+      </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>-6.7874299999999996</v>
+        <v>0.29257000000000044</v>
+      </c>
+      <c r="I2">
+        <f>H2/G2</f>
+        <v>4.1323446327683679E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2+7</f>
+        <v>44878</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2+7</f>
+        <v>44884</v>
+      </c>
+      <c r="D3">
+        <v>5.9194003567514102</v>
+      </c>
+      <c r="E3">
+        <v>6.2750996432486303</v>
+      </c>
+      <c r="F3">
+        <v>6.0972499999999998</v>
+      </c>
+      <c r="H3">
+        <f>G3-F3</f>
+        <v>-6.0972499999999998</v>
+      </c>
+      <c r="I3" t="e">
+        <f>H3/G3</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/1 month results.xlsx
+++ b/1 month results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\30Yr Conforming Rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C0DF15-A86C-4688-8C40-F6D39998FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148F9B4-6386-954D-93DF-18A1D8F69AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,23 +410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8400F-F70C-4809-B1E6-0681672A79E0}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,7 +483,7 @@
         <v>4.1323446327683679E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,13 +504,27 @@
       <c r="F3">
         <v>6.0972499999999998</v>
       </c>
+      <c r="G3">
+        <v>6.61</v>
+      </c>
       <c r="H3">
         <f>G3-F3</f>
-        <v>-6.0972499999999998</v>
-      </c>
-      <c r="I3" t="e">
+        <v>0.51275000000000048</v>
+      </c>
+      <c r="I3">
         <f>H3/G3</f>
-        <v>#DIV/0!</v>
+        <v>7.7571860816944088E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44885</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44892</v>
       </c>
     </row>
   </sheetData>

--- a/1 month results.xlsx
+++ b/1 month results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\30Yr Conforming Rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1148F9B4-6386-954D-93DF-18A1D8F69AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E555CD-F2BF-4E1A-BF58-3020292C5F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,23 +410,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8400F-F70C-4809-B1E6-0681672A79E0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -483,7 +483,7 @@
         <v>4.1323446327683679E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,7 +516,7 @@
         <v>7.7571860816944088E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -525,6 +525,48 @@
       </c>
       <c r="C4" s="1">
         <v>44892</v>
+      </c>
+      <c r="D4">
+        <v>5.9861603567514203</v>
+      </c>
+      <c r="E4">
+        <v>6.3418596432486396</v>
+      </c>
+      <c r="F4">
+        <v>6.1640100000000002</v>
+      </c>
+      <c r="G4">
+        <v>6.58</v>
+      </c>
+      <c r="H4">
+        <f>G4-F4</f>
+        <v>0.41598999999999986</v>
+      </c>
+      <c r="I4">
+        <f>H4/G4</f>
+        <v>6.3220364741641319E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B4+7</f>
+        <v>44892</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C4+7</f>
+        <v>44899</v>
+      </c>
+      <c r="D5">
+        <v>5.9528503567514202</v>
+      </c>
+      <c r="E5">
+        <v>6.3085496432486403</v>
+      </c>
+      <c r="F5">
+        <v>6.1307</v>
       </c>
     </row>
   </sheetData>

--- a/1 month results.xlsx
+++ b/1 month results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Python\Projects\30Yr Conforming Rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C388455\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E555CD-F2BF-4E1A-BF58-3020292C5F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124E7BF-DC4D-4D2A-BB50-4AA067DDD38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32E14C5D-796E-4355-9B42-5E77B5605A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -57,7 +57,31 @@
     <t>Prediction</t>
   </si>
   <si>
-    <t>Residual</t>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Relative Error</t>
+  </si>
+  <si>
+    <t>Squared Error</t>
+  </si>
+  <si>
+    <t>Sum Squared Error</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Abs Error</t>
+  </si>
+  <si>
+    <t>Sum Abs Error</t>
+  </si>
+  <si>
+    <t>RMAE</t>
+  </si>
+  <si>
+    <t>RRMSE</t>
   </si>
 </sst>
 </file>
@@ -410,23 +434,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF8400F-F70C-4809-B1E6-0681672A79E0}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +477,26 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,8 +526,28 @@
         <f>H2/G2</f>
         <v>4.1323446327683679E-2</v>
       </c>
+      <c r="J2">
+        <f>H2^2</f>
+        <v>8.5597204900000251E-2</v>
+      </c>
+      <c r="K2">
+        <f>ABS(H2)</f>
+        <v>0.29257000000000044</v>
+      </c>
+      <c r="M2">
+        <f>SUM(J:J)</f>
+        <v>0.70400107840000081</v>
+      </c>
+      <c r="N2">
+        <f>SQRT(M2/(COUNTA(G:G)-1))</f>
+        <v>0.37523354818033017</v>
+      </c>
+      <c r="O2">
+        <f>N2/AVERAGE(G:G)</f>
+        <v>5.6698934448523745E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -515,8 +579,25 @@
         <f>H3/G3</f>
         <v>7.7571860816944088E-2</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="0">H3^2</f>
+        <v>0.2629125625000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="1">ABS(H3)</f>
+        <v>0.51275000000000048</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -546,8 +627,28 @@
         <f>H4/G4</f>
         <v>6.3220364741641319E-2</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.17304768009999988</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.41598999999999986</v>
+      </c>
+      <c r="M4">
+        <f>SUM(K:K)</f>
+        <v>1.8115800000000011</v>
+      </c>
+      <c r="N4">
+        <f>M4/(COUNTA(G:G)-1)</f>
+        <v>0.36231600000000019</v>
+      </c>
+      <c r="O4">
+        <f>N4/AVERAGE(G:G)</f>
+        <v>5.4747053490480535E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -567,6 +668,88 @@
       </c>
       <c r="F5">
         <v>6.1307</v>
+      </c>
+      <c r="G5">
+        <v>6.49</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="2">G5-F5</f>
+        <v>0.35930000000000017</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="3">H5/G5</f>
+        <v>5.536209553158708E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.12909649000000012</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.35930000000000017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B7" si="4">B5+7</f>
+        <v>44899</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C5+7</f>
+        <v>44906</v>
+      </c>
+      <c r="D6">
+        <v>5.9211803567514103</v>
+      </c>
+      <c r="E6">
+        <v>6.2768796432486296</v>
+      </c>
+      <c r="F6">
+        <v>6.09903</v>
+      </c>
+      <c r="G6">
+        <v>6.33</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.23097000000000012</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3.6488151658767794E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5.3347140900000055E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.23097000000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="4"/>
+        <v>44906</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6+7</f>
+        <v>44913</v>
+      </c>
+      <c r="D7">
+        <v>6.0013503567514102</v>
+      </c>
+      <c r="E7">
+        <v>6.3570496432486303</v>
+      </c>
+      <c r="F7">
+        <v>6.1791999999999998</v>
       </c>
     </row>
   </sheetData>
